--- a/src/main/resources/xlsx/someData.xlsx
+++ b/src/main/resources/xlsx/someData.xlsx
@@ -16,15 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Строка</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Тип 1</t>
   </si>
   <si>
-    <t>BigDecimal</t>
+    <t>type_1_1_desc</t>
+  </si>
+  <si>
+    <t>type_1_2_desc</t>
+  </si>
+  <si>
+    <t>type_1_3_desc</t>
+  </si>
+  <si>
+    <t>Строка 1</t>
+  </si>
+  <si>
+    <t>Строка 2</t>
+  </si>
+  <si>
+    <t>Строка 3</t>
+  </si>
+  <si>
+    <t>BigDecimal 1</t>
+  </si>
+  <si>
+    <t>BigDecimal 2</t>
   </si>
   <si>
     <t>Apache</t>
@@ -37,15 +55,6 @@
   </si>
   <si>
     <t>Example</t>
-  </si>
-  <si>
-    <t>type_1_1_desc</t>
-  </si>
-  <si>
-    <t>type_1_2_desc</t>
-  </si>
-  <si>
-    <t>type_1_3_desc</t>
   </si>
 </sst>
 </file>
@@ -395,71 +404,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F5" s="2">
         <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
